--- a/data/params.xlsx
+++ b/data/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\project_dosan\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C1DB74-620E-4C52-A8B7-0C4446959973}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7974FA9F-7DC7-4D44-9EAC-5E8A58B2C42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="1092" windowWidth="17280" windowHeight="8976" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="3630" windowWidth="5310" windowHeight="9750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -596,18 +596,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0.4</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -675,12 +675,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
